--- a/hw/pinout.xlsx
+++ b/hw/pinout.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\working\RB3204-RBCX\ele\MainBoard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\working\RB3204-RBCX\hw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CC2F07-2096-4EC7-B468-F7AF9F567D33}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870510B9-F3CC-4D8C-8782-98F6221F6DE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{08978B24-E42F-429B-A3F9-EF8F7AA6C2ED}"/>
   </bookViews>
@@ -2484,57 +2484,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2559,12 +2508,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2906,8 +2906,8 @@
   <dimension ref="A1:AV114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AU10" sqref="AU10"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AU93" sqref="AU93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2936,90 +2936,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="146" t="s">
         <v>259</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="134"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="132" t="s">
+      <c r="E1" s="140"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="139" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="132" t="s">
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="134"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="132" t="s">
+      <c r="L1" s="140"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="139" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="133"/>
-      <c r="P1" s="126" t="s">
+      <c r="O1" s="141"/>
+      <c r="P1" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="126" t="s">
+      <c r="Q1" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="128" t="s">
+      <c r="R1" s="131" t="s">
         <v>115</v>
       </c>
-      <c r="S1" s="129"/>
-      <c r="T1" s="128" t="s">
+      <c r="S1" s="132"/>
+      <c r="T1" s="131" t="s">
         <v>113</v>
       </c>
-      <c r="U1" s="129"/>
-      <c r="V1" s="132" t="s">
+      <c r="U1" s="132"/>
+      <c r="V1" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="W1" s="134"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="126" t="s">
+      <c r="W1" s="140"/>
+      <c r="X1" s="141"/>
+      <c r="Y1" s="129" t="s">
         <v>305</v>
       </c>
-      <c r="Z1" s="126" t="s">
+      <c r="Z1" s="129" t="s">
         <v>306</v>
       </c>
-      <c r="AA1" s="128" t="s">
+      <c r="AA1" s="131" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="129"/>
-      <c r="AD1" s="128" t="s">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="AE1" s="129"/>
+      <c r="AE1" s="132"/>
       <c r="AF1" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AG1" s="138" t="s">
+      <c r="AG1" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="AH1" s="139"/>
-      <c r="AI1" s="135" t="s">
+      <c r="AH1" s="134"/>
+      <c r="AI1" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="AJ1" s="138" t="s">
+      <c r="AJ1" s="133" t="s">
         <v>127</v>
       </c>
-      <c r="AK1" s="139"/>
-      <c r="AL1" s="126" t="s">
+      <c r="AK1" s="134"/>
+      <c r="AL1" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="AM1" s="148" t="s">
+      <c r="AM1" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="AN1" s="135" t="s">
+      <c r="AN1" s="137" t="s">
         <v>151</v>
       </c>
       <c r="AO1" s="8" t="s">
@@ -3034,22 +3034,22 @@
       <c r="AR1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="AS1" s="140" t="s">
+      <c r="AS1" s="121" t="s">
         <v>141</v>
       </c>
-      <c r="AT1" s="142" t="s">
+      <c r="AT1" s="123" t="s">
         <v>182</v>
       </c>
-      <c r="AU1" s="144" t="s">
+      <c r="AU1" s="125" t="s">
         <v>183</v>
       </c>
-      <c r="AV1" s="146" t="s">
+      <c r="AV1" s="127" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="131"/>
-      <c r="B2" s="123"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="147"/>
       <c r="C2" s="37" t="s">
         <v>96</v>
       </c>
@@ -3089,8 +3089,8 @@
       <c r="O2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
       <c r="R2" s="9" t="s">
         <v>105</v>
       </c>
@@ -3112,8 +3112,8 @@
       <c r="X2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
       <c r="AA2" s="9" t="s">
         <v>101</v>
       </c>
@@ -3136,24 +3136,24 @@
       <c r="AH2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AI2" s="136"/>
+      <c r="AI2" s="138"/>
       <c r="AJ2" s="9" t="s">
         <v>105</v>
       </c>
       <c r="AK2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AL2" s="127"/>
-      <c r="AM2" s="149"/>
-      <c r="AN2" s="136"/>
+      <c r="AL2" s="130"/>
+      <c r="AM2" s="136"/>
+      <c r="AN2" s="138"/>
       <c r="AO2" s="16"/>
       <c r="AP2" s="16"/>
       <c r="AQ2" s="16"/>
       <c r="AR2" s="16"/>
-      <c r="AS2" s="141"/>
-      <c r="AT2" s="143"/>
-      <c r="AU2" s="145"/>
-      <c r="AV2" s="147"/>
+      <c r="AS2" s="122"/>
+      <c r="AT2" s="124"/>
+      <c r="AU2" s="126"/>
+      <c r="AV2" s="128"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" s="74">
@@ -5588,7 +5588,7 @@
         <v>108</v>
       </c>
       <c r="AU41" s="29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AV41" s="28"/>
     </row>
@@ -5648,7 +5648,7 @@
         <v>97</v>
       </c>
       <c r="AU42" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AV42" s="28"/>
     </row>
@@ -5708,7 +5708,7 @@
         <v>110</v>
       </c>
       <c r="AU43" s="29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AV43" s="28"/>
     </row>
@@ -5768,7 +5768,7 @@
         <v>98</v>
       </c>
       <c r="AU44" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AV44" s="28"/>
     </row>
@@ -5828,7 +5828,7 @@
         <v>111</v>
       </c>
       <c r="AU45" s="29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AV45" s="28"/>
     </row>
@@ -5888,7 +5888,7 @@
         <v>99</v>
       </c>
       <c r="AU46" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AV46" s="28"/>
     </row>
@@ -9398,70 +9398,70 @@
       </c>
       <c r="B103" s="30"/>
       <c r="C103" s="30"/>
-      <c r="D103" s="125" t="s">
+      <c r="D103" s="149" t="s">
         <v>251</v>
       </c>
-      <c r="E103" s="125"/>
-      <c r="F103" s="125"/>
-      <c r="G103" s="125" t="s">
+      <c r="E103" s="149"/>
+      <c r="F103" s="149"/>
+      <c r="G103" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="H103" s="125"/>
-      <c r="I103" s="125"/>
-      <c r="J103" s="125"/>
-      <c r="K103" s="125" t="s">
+      <c r="H103" s="149"/>
+      <c r="I103" s="149"/>
+      <c r="J103" s="149"/>
+      <c r="K103" s="149" t="s">
         <v>206</v>
       </c>
-      <c r="L103" s="125"/>
-      <c r="M103" s="125"/>
-      <c r="N103" s="125" t="s">
+      <c r="L103" s="149"/>
+      <c r="M103" s="149"/>
+      <c r="N103" s="149" t="s">
         <v>209</v>
       </c>
-      <c r="O103" s="125"/>
+      <c r="O103" s="149"/>
       <c r="P103" s="35" t="s">
         <v>283</v>
       </c>
       <c r="Q103" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="R103" s="124" t="s">
+      <c r="R103" s="148" t="s">
         <v>217</v>
       </c>
-      <c r="S103" s="124"/>
-      <c r="T103" s="124" t="s">
+      <c r="S103" s="148"/>
+      <c r="T103" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="U103" s="124"/>
-      <c r="V103" s="125" t="s">
+      <c r="U103" s="148"/>
+      <c r="V103" s="149" t="s">
         <v>486</v>
       </c>
-      <c r="W103" s="125"/>
-      <c r="X103" s="125"/>
+      <c r="W103" s="149"/>
+      <c r="X103" s="149"/>
       <c r="Y103" s="35" t="s">
         <v>216</v>
       </c>
       <c r="Z103" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="AA103" s="124" t="s">
+      <c r="AA103" s="148" t="s">
         <v>218</v>
       </c>
-      <c r="AB103" s="124"/>
-      <c r="AC103" s="124"/>
-      <c r="AD103" s="124" t="s">
+      <c r="AB103" s="148"/>
+      <c r="AC103" s="148"/>
+      <c r="AD103" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="AE103" s="124"/>
+      <c r="AE103" s="148"/>
       <c r="AF103" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="AG103" s="121"/>
-      <c r="AH103" s="121"/>
+      <c r="AG103" s="145"/>
+      <c r="AH103" s="145"/>
       <c r="AI103" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="AJ103" s="121"/>
-      <c r="AK103" s="121"/>
+      <c r="AJ103" s="145"/>
+      <c r="AK103" s="145"/>
       <c r="AL103" s="35" t="s">
         <v>129</v>
       </c>
@@ -9544,26 +9544,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="AS1:AS2"/>
-    <mergeCell ref="AT1:AT2"/>
-    <mergeCell ref="AU1:AU2"/>
-    <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="AM1:AM2"/>
-    <mergeCell ref="AN1:AN2"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="AG103:AH103"/>
     <mergeCell ref="AJ103:AK103"/>
     <mergeCell ref="B1:B2"/>
@@ -9580,6 +9560,26 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="AS1:AS2"/>
+    <mergeCell ref="AT1:AT2"/>
+    <mergeCell ref="AU1:AU2"/>
+    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="AN1:AN2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/hw/pinout.xlsx
+++ b/hw/pinout.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\working\RB3204-RBCX\hw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robotarna\RB3204-RBCX\hw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870510B9-F3CC-4D8C-8782-98F6221F6DE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE313293-25F0-401A-91D9-7DDFD597B9A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{08978B24-E42F-429B-A3F9-EF8F7AA6C2ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{08978B24-E42F-429B-A3F9-EF8F7AA6C2ED}"/>
   </bookViews>
   <sheets>
     <sheet name="koprocesor" sheetId="2" r:id="rId1"/>
-    <sheet name="ESP32" sheetId="3" r:id="rId2"/>
+    <sheet name="List1" sheetId="6" r:id="rId2"/>
+    <sheet name="ESP32" sheetId="3" r:id="rId3"/>
+    <sheet name="koprocesor v1.1 summary" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="530">
   <si>
     <t>GPIO</t>
   </si>
@@ -1603,6 +1605,123 @@
   </si>
   <si>
     <t>BUTTON_ON</t>
+  </si>
+  <si>
+    <t>v1.1</t>
+  </si>
+  <si>
+    <t>button1</t>
+  </si>
+  <si>
+    <t>mpu_int</t>
+  </si>
+  <si>
+    <t>usb_dp_pullup</t>
+  </si>
+  <si>
+    <t>button on</t>
+  </si>
+  <si>
+    <t>user usart1</t>
+  </si>
+  <si>
+    <t>control usart3</t>
+  </si>
+  <si>
+    <t>tunnel usart2</t>
+  </si>
+  <si>
+    <t>vusb_det</t>
+  </si>
+  <si>
+    <t>Interrupt</t>
+  </si>
+  <si>
+    <t>button2</t>
+  </si>
+  <si>
+    <t>in4b</t>
+  </si>
+  <si>
+    <t>led3</t>
+  </si>
+  <si>
+    <t>button4</t>
+  </si>
+  <si>
+    <t>iServo uart5</t>
+  </si>
+  <si>
+    <t>debug uart4</t>
+  </si>
+  <si>
+    <t>led2</t>
+  </si>
+  <si>
+    <t>CONTROL</t>
+  </si>
+  <si>
+    <t>USP_BP_PULLUP</t>
+  </si>
+  <si>
+    <t>iServo</t>
+  </si>
+  <si>
+    <t>TUNNEL</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>PC13 + RTC</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>BUTTON_OFF</t>
+  </si>
+  <si>
+    <t>CONTROL_TX</t>
+  </si>
+  <si>
+    <t>CONTROL_RX</t>
+  </si>
+  <si>
+    <t>IMU_INT</t>
+  </si>
+  <si>
+    <t>DEBUG_TX</t>
+  </si>
+  <si>
+    <t>DEBUG_RX</t>
+  </si>
+  <si>
+    <t>ISERVO</t>
+  </si>
+  <si>
+    <t>TUNNEL_TX</t>
+  </si>
+  <si>
+    <t>TUNNEL_RX</t>
+  </si>
+  <si>
+    <t>USER_TX</t>
+  </si>
+  <si>
+    <t>USER_RX</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +1852,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -2254,11 +2373,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2484,6 +2623,97 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2508,63 +2738,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2586,6 +2765,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -2903,23 +3084,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AV114"/>
+  <dimension ref="A1:AX114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AU93" sqref="AU93"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AW102" sqref="AW102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
     <col min="4" max="6" width="6.28515625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="13" width="6" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" style="1" customWidth="1"/>
     <col min="14" max="15" width="4.5703125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="1"/>
+    <col min="16" max="17" width="8" style="1" customWidth="1"/>
     <col min="18" max="24" width="4.5703125" style="1" customWidth="1"/>
     <col min="25" max="26" width="7.85546875" style="1" customWidth="1"/>
     <col min="27" max="29" width="3.5703125" style="1" customWidth="1"/>
@@ -2928,98 +3115,100 @@
     <col min="38" max="38" width="9.140625" style="1"/>
     <col min="39" max="43" width="6" style="1" customWidth="1"/>
     <col min="44" max="44" width="12.85546875" style="1" customWidth="1"/>
-    <col min="45" max="45" width="14.28515625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="11.7109375" style="1" customWidth="1"/>
     <col min="46" max="46" width="19.42578125" style="1" customWidth="1"/>
     <col min="47" max="47" width="20.42578125" style="1" customWidth="1"/>
-    <col min="48" max="48" width="83.28515625" style="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.140625" style="1"/>
+    <col min="48" max="48" width="15.7109375" style="1" customWidth="1"/>
+    <col min="49" max="49" width="9.140625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="83.28515625" style="1" customWidth="1"/>
+    <col min="51" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:50" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="148" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="140" t="s">
         <v>259</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="139" t="s">
+      <c r="D1" s="150" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="140"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="139" t="s">
+      <c r="E1" s="152"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="139" t="s">
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="140"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="139" t="s">
+      <c r="L1" s="152"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="141"/>
-      <c r="P1" s="129" t="s">
+      <c r="O1" s="151"/>
+      <c r="P1" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="129" t="s">
+      <c r="Q1" s="144" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="131" t="s">
+      <c r="R1" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="S1" s="132"/>
-      <c r="T1" s="131" t="s">
+      <c r="S1" s="147"/>
+      <c r="T1" s="146" t="s">
         <v>113</v>
       </c>
-      <c r="U1" s="132"/>
-      <c r="V1" s="139" t="s">
+      <c r="U1" s="147"/>
+      <c r="V1" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="W1" s="140"/>
-      <c r="X1" s="141"/>
-      <c r="Y1" s="129" t="s">
+      <c r="W1" s="152"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="144" t="s">
         <v>305</v>
       </c>
-      <c r="Z1" s="129" t="s">
+      <c r="Z1" s="144" t="s">
         <v>306</v>
       </c>
-      <c r="AA1" s="131" t="s">
+      <c r="AA1" s="146" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="131" t="s">
+      <c r="AB1" s="155"/>
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="146" t="s">
         <v>124</v>
       </c>
-      <c r="AE1" s="132"/>
+      <c r="AE1" s="147"/>
       <c r="AF1" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AG1" s="133" t="s">
+      <c r="AG1" s="156" t="s">
         <v>125</v>
       </c>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="137" t="s">
+      <c r="AH1" s="157"/>
+      <c r="AI1" s="153" t="s">
         <v>126</v>
       </c>
-      <c r="AJ1" s="133" t="s">
+      <c r="AJ1" s="156" t="s">
         <v>127</v>
       </c>
-      <c r="AK1" s="134"/>
-      <c r="AL1" s="129" t="s">
+      <c r="AK1" s="157"/>
+      <c r="AL1" s="144" t="s">
         <v>129</v>
       </c>
-      <c r="AM1" s="135" t="s">
+      <c r="AM1" s="166" t="s">
         <v>130</v>
       </c>
-      <c r="AN1" s="137" t="s">
+      <c r="AN1" s="153" t="s">
         <v>151</v>
       </c>
       <c r="AO1" s="8" t="s">
@@ -3034,22 +3223,28 @@
       <c r="AR1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="AS1" s="121" t="s">
+      <c r="AS1" s="158" t="s">
         <v>141</v>
       </c>
-      <c r="AT1" s="123" t="s">
+      <c r="AT1" s="160" t="s">
         <v>182</v>
       </c>
-      <c r="AU1" s="125" t="s">
+      <c r="AU1" s="162" t="s">
         <v>183</v>
       </c>
-      <c r="AV1" s="127" t="s">
+      <c r="AV1" s="121" t="s">
+        <v>491</v>
+      </c>
+      <c r="AW1" s="136" t="s">
+        <v>500</v>
+      </c>
+      <c r="AX1" s="164" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="144"/>
-      <c r="B2" s="147"/>
+    <row r="2" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="149"/>
+      <c r="B2" s="141"/>
       <c r="C2" s="37" t="s">
         <v>96</v>
       </c>
@@ -3089,8 +3284,8 @@
       <c r="O2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
       <c r="R2" s="9" t="s">
         <v>105</v>
       </c>
@@ -3112,8 +3307,8 @@
       <c r="X2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
       <c r="AA2" s="9" t="s">
         <v>101</v>
       </c>
@@ -3136,26 +3331,28 @@
       <c r="AH2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AI2" s="138"/>
+      <c r="AI2" s="154"/>
       <c r="AJ2" s="9" t="s">
         <v>105</v>
       </c>
       <c r="AK2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AL2" s="130"/>
-      <c r="AM2" s="136"/>
-      <c r="AN2" s="138"/>
+      <c r="AL2" s="145"/>
+      <c r="AM2" s="167"/>
+      <c r="AN2" s="154"/>
       <c r="AO2" s="16"/>
       <c r="AP2" s="16"/>
       <c r="AQ2" s="16"/>
       <c r="AR2" s="16"/>
-      <c r="AS2" s="122"/>
-      <c r="AT2" s="124"/>
-      <c r="AU2" s="126"/>
-      <c r="AV2" s="128"/>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AS2" s="159"/>
+      <c r="AT2" s="161"/>
+      <c r="AU2" s="163"/>
+      <c r="AV2" s="122"/>
+      <c r="AW2" s="137"/>
+      <c r="AX2" s="165"/>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="74">
         <v>1</v>
       </c>
@@ -3211,9 +3408,11 @@
       <c r="AU3" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="AV3" s="22"/>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV3" s="123"/>
+      <c r="AW3" s="123"/>
+      <c r="AX3" s="22"/>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="70">
         <v>2</v>
       </c>
@@ -3269,9 +3468,13 @@
       <c r="AU4" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="AV4" s="28"/>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV4" s="124"/>
+      <c r="AW4" s="124">
+        <v>3</v>
+      </c>
+      <c r="AX4" s="28"/>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="70">
         <v>3</v>
       </c>
@@ -3327,9 +3530,11 @@
       <c r="AU5" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AV5" s="28"/>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV5" s="124"/>
+      <c r="AW5" s="124"/>
+      <c r="AX5" s="28"/>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="70">
         <v>4</v>
       </c>
@@ -3385,9 +3590,13 @@
       <c r="AU6" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="AV6" s="28"/>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV6" s="124"/>
+      <c r="AW6" s="124">
+        <v>5</v>
+      </c>
+      <c r="AX6" s="28"/>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="70">
         <v>5</v>
       </c>
@@ -3442,9 +3651,11 @@
       <c r="AU7" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AV7" s="28"/>
-    </row>
-    <row r="8" spans="1:48" ht="18" x14ac:dyDescent="0.35">
+      <c r="AV7" s="124"/>
+      <c r="AW7" s="124"/>
+      <c r="AX7" s="28"/>
+    </row>
+    <row r="8" spans="1:50" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="70">
         <v>6</v>
       </c>
@@ -3500,9 +3711,11 @@
       <c r="AU8" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="AV8" s="28"/>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV8" s="125"/>
+      <c r="AW8" s="125"/>
+      <c r="AX8" s="28"/>
+    </row>
+    <row r="9" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="70">
         <v>7</v>
       </c>
@@ -3562,9 +3775,13 @@
       <c r="AU9" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="AV9" s="28"/>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV9" s="124" t="s">
+        <v>302</v>
+      </c>
+      <c r="AW9" s="124"/>
+      <c r="AX9" s="28"/>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="70">
         <v>8</v>
       </c>
@@ -3624,9 +3841,11 @@
       <c r="AU10" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="AV10" s="28"/>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV10" s="126"/>
+      <c r="AW10" s="126"/>
+      <c r="AX10" s="28"/>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="70">
         <v>9</v>
       </c>
@@ -3686,9 +3905,11 @@
       <c r="AU11" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="AV11" s="28"/>
-    </row>
-    <row r="12" spans="1:48" ht="18" x14ac:dyDescent="0.35">
+      <c r="AV11" s="126"/>
+      <c r="AW11" s="126"/>
+      <c r="AX11" s="28"/>
+    </row>
+    <row r="12" spans="1:50" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="70">
         <v>10</v>
       </c>
@@ -3744,9 +3965,11 @@
       <c r="AU12" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="AV12" s="28"/>
-    </row>
-    <row r="13" spans="1:48" ht="18" x14ac:dyDescent="0.35">
+      <c r="AV12" s="125"/>
+      <c r="AW12" s="125"/>
+      <c r="AX12" s="28"/>
+    </row>
+    <row r="13" spans="1:50" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="70">
         <v>11</v>
       </c>
@@ -3802,9 +4025,11 @@
       <c r="AU13" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="AV13" s="28"/>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV13" s="125"/>
+      <c r="AW13" s="125"/>
+      <c r="AX13" s="28"/>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="70">
         <v>12</v>
       </c>
@@ -3860,9 +4085,11 @@
       <c r="AU14" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="AV14" s="28"/>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV14" s="127"/>
+      <c r="AW14" s="127"/>
+      <c r="AX14" s="28"/>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" s="70">
         <v>13</v>
       </c>
@@ -3918,9 +4145,11 @@
       <c r="AU15" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AV15" s="28"/>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV15" s="127"/>
+      <c r="AW15" s="127"/>
+      <c r="AX15" s="28"/>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" s="70">
         <v>14</v>
       </c>
@@ -3976,9 +4205,11 @@
       <c r="AU16" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="AV16" s="28"/>
-    </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV16" s="128"/>
+      <c r="AW16" s="128"/>
+      <c r="AX16" s="28"/>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" s="70">
         <v>15</v>
       </c>
@@ -4040,9 +4271,11 @@
       <c r="AU17" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="AV17" s="28"/>
-    </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV17" s="126"/>
+      <c r="AW17" s="126"/>
+      <c r="AX17" s="28"/>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" s="70">
         <v>16</v>
       </c>
@@ -4104,9 +4337,11 @@
       <c r="AU18" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="AV18" s="28"/>
-    </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV18" s="126"/>
+      <c r="AW18" s="126"/>
+      <c r="AX18" s="28"/>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" s="70">
         <v>17</v>
       </c>
@@ -4168,9 +4403,11 @@
       <c r="AU19" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="AV19" s="28"/>
-    </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV19" s="126"/>
+      <c r="AW19" s="126"/>
+      <c r="AX19" s="28"/>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" s="70">
         <v>18</v>
       </c>
@@ -4232,9 +4469,11 @@
       <c r="AU20" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="AV20" s="28"/>
-    </row>
-    <row r="21" spans="1:48" ht="18" x14ac:dyDescent="0.35">
+      <c r="AV20" s="126"/>
+      <c r="AW20" s="126"/>
+      <c r="AX20" s="28"/>
+    </row>
+    <row r="21" spans="1:50" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="70">
         <v>19</v>
       </c>
@@ -4290,9 +4529,11 @@
       <c r="AU21" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="AV21" s="28"/>
-    </row>
-    <row r="22" spans="1:48" ht="18" x14ac:dyDescent="0.35">
+      <c r="AV21" s="125"/>
+      <c r="AW21" s="125"/>
+      <c r="AX21" s="28"/>
+    </row>
+    <row r="22" spans="1:50" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="70">
         <v>20</v>
       </c>
@@ -4348,9 +4589,11 @@
       <c r="AU22" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="AV22" s="28"/>
-    </row>
-    <row r="23" spans="1:48" ht="18" x14ac:dyDescent="0.35">
+      <c r="AV22" s="127"/>
+      <c r="AW22" s="127"/>
+      <c r="AX22" s="28"/>
+    </row>
+    <row r="23" spans="1:50" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="70">
         <v>21</v>
       </c>
@@ -4406,9 +4649,11 @@
       <c r="AU23" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="AV23" s="28"/>
-    </row>
-    <row r="24" spans="1:48" ht="18" x14ac:dyDescent="0.35">
+      <c r="AV23" s="127"/>
+      <c r="AW23" s="127"/>
+      <c r="AX23" s="28"/>
+    </row>
+    <row r="24" spans="1:50" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="70">
         <v>22</v>
       </c>
@@ -4464,9 +4709,11 @@
       <c r="AU24" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="AV24" s="28"/>
-    </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV24" s="125"/>
+      <c r="AW24" s="125"/>
+      <c r="AX24" s="28"/>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" s="70">
         <v>23</v>
       </c>
@@ -4538,9 +4785,11 @@
       <c r="AU25" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="AV25" s="28"/>
-    </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV25" s="126"/>
+      <c r="AW25" s="126"/>
+      <c r="AX25" s="28"/>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" s="70">
         <v>24</v>
       </c>
@@ -4610,9 +4859,11 @@
       <c r="AU26" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="AV26" s="28"/>
-    </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV26" s="126"/>
+      <c r="AW26" s="126"/>
+      <c r="AX26" s="28"/>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" s="70">
         <v>25</v>
       </c>
@@ -4682,9 +4933,11 @@
       <c r="AU27" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="AV27" s="28"/>
-    </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV27" s="126"/>
+      <c r="AW27" s="126"/>
+      <c r="AX27" s="28"/>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" s="70">
         <v>26</v>
       </c>
@@ -4754,9 +5007,11 @@
       <c r="AU28" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="AV28" s="28"/>
-    </row>
-    <row r="29" spans="1:48" ht="18" x14ac:dyDescent="0.35">
+      <c r="AV28" s="126"/>
+      <c r="AW28" s="126"/>
+      <c r="AX28" s="28"/>
+    </row>
+    <row r="29" spans="1:50" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="70">
         <v>27</v>
       </c>
@@ -4812,9 +5067,11 @@
       <c r="AU29" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="AV29" s="28"/>
-    </row>
-    <row r="30" spans="1:48" ht="18" x14ac:dyDescent="0.35">
+      <c r="AV29" s="125"/>
+      <c r="AW29" s="125"/>
+      <c r="AX29" s="28"/>
+    </row>
+    <row r="30" spans="1:50" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="70">
         <v>28</v>
       </c>
@@ -4870,9 +5127,11 @@
       <c r="AU30" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="AV30" s="28"/>
-    </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV30" s="125"/>
+      <c r="AW30" s="125"/>
+      <c r="AX30" s="28"/>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" s="72">
         <v>29</v>
       </c>
@@ -4940,9 +5199,11 @@
       <c r="AU31" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="AV31" s="28"/>
-    </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV31" s="129"/>
+      <c r="AW31" s="129"/>
+      <c r="AX31" s="28"/>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A32" s="72">
         <v>30</v>
       </c>
@@ -5006,9 +5267,11 @@
       <c r="AU32" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="AV32" s="28"/>
-    </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV32" s="129"/>
+      <c r="AW32" s="129"/>
+      <c r="AX32" s="28"/>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33" s="70">
         <v>31</v>
       </c>
@@ -5076,9 +5339,11 @@
       <c r="AU33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AV33" s="28"/>
-    </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV33" s="124"/>
+      <c r="AW33" s="124"/>
+      <c r="AX33" s="28"/>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34" s="72">
         <v>32</v>
       </c>
@@ -5146,9 +5411,11 @@
       <c r="AU34" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="AV34" s="28"/>
-    </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV34" s="129"/>
+      <c r="AW34" s="129"/>
+      <c r="AX34" s="28"/>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A35" s="70">
         <v>33</v>
       </c>
@@ -5208,9 +5475,11 @@
       <c r="AU35" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="AV35" s="28"/>
-    </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV35" s="126"/>
+      <c r="AW35" s="126"/>
+      <c r="AX35" s="28"/>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A36" s="70">
         <v>34</v>
       </c>
@@ -5270,9 +5539,11 @@
       <c r="AU36" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="AV36" s="28"/>
-    </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV36" s="126"/>
+      <c r="AW36" s="126"/>
+      <c r="AX36" s="28"/>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A37" s="70">
         <v>35</v>
       </c>
@@ -5340,9 +5611,11 @@
       <c r="AU37" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="AV37" s="28"/>
-    </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV37" s="126"/>
+      <c r="AW37" s="126"/>
+      <c r="AX37" s="28"/>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A38" s="70">
         <v>36</v>
       </c>
@@ -5410,9 +5683,11 @@
       <c r="AU38" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="AV38" s="28"/>
-    </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV38" s="126"/>
+      <c r="AW38" s="126"/>
+      <c r="AX38" s="28"/>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A39" s="70">
         <v>37</v>
       </c>
@@ -5470,9 +5745,13 @@
       <c r="AU39" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="AV39" s="28"/>
-    </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV39" s="126"/>
+      <c r="AW39" s="126">
+        <v>2</v>
+      </c>
+      <c r="AX39" s="28"/>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A40" s="70">
         <v>38</v>
       </c>
@@ -5530,9 +5809,13 @@
       <c r="AU40" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="AV40" s="28"/>
-    </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV40" s="124"/>
+      <c r="AW40" s="124">
+        <v>7</v>
+      </c>
+      <c r="AX40" s="28"/>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A41" s="70">
         <v>39</v>
       </c>
@@ -5590,9 +5873,11 @@
       <c r="AU41" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="AV41" s="28"/>
-    </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV41" s="126"/>
+      <c r="AW41" s="126"/>
+      <c r="AX41" s="28"/>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A42" s="70">
         <v>40</v>
       </c>
@@ -5650,9 +5935,11 @@
       <c r="AU42" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="AV42" s="28"/>
-    </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV42" s="126"/>
+      <c r="AW42" s="126"/>
+      <c r="AX42" s="28"/>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A43" s="70">
         <v>41</v>
       </c>
@@ -5710,9 +5997,11 @@
       <c r="AU43" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="AV43" s="28"/>
-    </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV43" s="126"/>
+      <c r="AW43" s="126"/>
+      <c r="AX43" s="28"/>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A44" s="70">
         <v>42</v>
       </c>
@@ -5770,9 +6059,11 @@
       <c r="AU44" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="AV44" s="28"/>
-    </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV44" s="126"/>
+      <c r="AW44" s="126"/>
+      <c r="AX44" s="28"/>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A45" s="70">
         <v>43</v>
       </c>
@@ -5830,9 +6121,11 @@
       <c r="AU45" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="AV45" s="28"/>
-    </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV45" s="126"/>
+      <c r="AW45" s="126"/>
+      <c r="AX45" s="28"/>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A46" s="70">
         <v>44</v>
       </c>
@@ -5890,9 +6183,11 @@
       <c r="AU46" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="AV46" s="28"/>
-    </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV46" s="126"/>
+      <c r="AW46" s="126"/>
+      <c r="AX46" s="28"/>
+    </row>
+    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A47" s="70">
         <v>45</v>
       </c>
@@ -5950,9 +6245,11 @@
       <c r="AU47" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="AV47" s="28"/>
-    </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV47" s="126"/>
+      <c r="AW47" s="126"/>
+      <c r="AX47" s="28"/>
+    </row>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A48" s="70">
         <v>46</v>
       </c>
@@ -6010,9 +6307,11 @@
       <c r="AU48" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="AV48" s="28"/>
-    </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV48" s="124"/>
+      <c r="AW48" s="124"/>
+      <c r="AX48" s="28"/>
+    </row>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A49" s="70">
         <v>47</v>
       </c>
@@ -6076,9 +6375,11 @@
       <c r="AU49" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="AV49" s="28"/>
-    </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV49" s="126"/>
+      <c r="AW49" s="126"/>
+      <c r="AX49" s="28"/>
+    </row>
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A50" s="70">
         <v>48</v>
       </c>
@@ -6142,9 +6443,11 @@
       <c r="AU50" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="AV50" s="28"/>
-    </row>
-    <row r="51" spans="1:48" ht="18" x14ac:dyDescent="0.35">
+      <c r="AV50" s="126"/>
+      <c r="AW50" s="126"/>
+      <c r="AX50" s="28"/>
+    </row>
+    <row r="51" spans="1:50" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="70">
         <v>49</v>
       </c>
@@ -6200,9 +6503,11 @@
       <c r="AU51" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="AV51" s="28"/>
-    </row>
-    <row r="52" spans="1:48" ht="18" x14ac:dyDescent="0.35">
+      <c r="AV51" s="125"/>
+      <c r="AW51" s="125"/>
+      <c r="AX51" s="28"/>
+    </row>
+    <row r="52" spans="1:50" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="70">
         <v>50</v>
       </c>
@@ -6258,9 +6563,11 @@
       <c r="AU52" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="AV52" s="28"/>
-    </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV52" s="125"/>
+      <c r="AW52" s="125"/>
+      <c r="AX52" s="28"/>
+    </row>
+    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A53" s="72">
         <v>51</v>
       </c>
@@ -6324,9 +6631,11 @@
       <c r="AU53" s="66" t="s">
         <v>481</v>
       </c>
-      <c r="AV53" s="28"/>
-    </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV53" s="130"/>
+      <c r="AW53" s="130"/>
+      <c r="AX53" s="28"/>
+    </row>
+    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A54" s="72">
         <v>52</v>
       </c>
@@ -6390,9 +6699,11 @@
       <c r="AU54" s="66" t="s">
         <v>481</v>
       </c>
-      <c r="AV54" s="28"/>
-    </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV54" s="130"/>
+      <c r="AW54" s="130"/>
+      <c r="AX54" s="28"/>
+    </row>
+    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A55" s="72">
         <v>53</v>
       </c>
@@ -6456,9 +6767,11 @@
       <c r="AU55" s="66" t="s">
         <v>481</v>
       </c>
-      <c r="AV55" s="28"/>
-    </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV55" s="130"/>
+      <c r="AW55" s="130"/>
+      <c r="AX55" s="28"/>
+    </row>
+    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A56" s="72">
         <v>54</v>
       </c>
@@ -6518,9 +6831,11 @@
       <c r="AU56" s="66" t="s">
         <v>481</v>
       </c>
-      <c r="AV56" s="28"/>
-    </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV56" s="130"/>
+      <c r="AW56" s="130"/>
+      <c r="AX56" s="28"/>
+    </row>
+    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A57" s="70">
         <v>55</v>
       </c>
@@ -6578,9 +6893,13 @@
       <c r="AU57" s="75" t="s">
         <v>483</v>
       </c>
-      <c r="AV57" s="28"/>
-    </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV57" s="131" t="s">
+        <v>497</v>
+      </c>
+      <c r="AW57" s="131"/>
+      <c r="AX57" s="28"/>
+    </row>
+    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A58" s="70">
         <v>56</v>
       </c>
@@ -6638,9 +6957,13 @@
       <c r="AU58" s="75" t="s">
         <v>287</v>
       </c>
-      <c r="AV58" s="28"/>
-    </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV58" s="131" t="s">
+        <v>497</v>
+      </c>
+      <c r="AW58" s="131"/>
+      <c r="AX58" s="28"/>
+    </row>
+    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A59" s="70">
         <v>57</v>
       </c>
@@ -6698,9 +7021,11 @@
       <c r="AU59" s="75" t="s">
         <v>238</v>
       </c>
-      <c r="AV59" s="28"/>
-    </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV59" s="131"/>
+      <c r="AW59" s="131"/>
+      <c r="AX59" s="28"/>
+    </row>
+    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A60" s="70">
         <v>58</v>
       </c>
@@ -6758,9 +7083,15 @@
       <c r="AU60" s="75" t="s">
         <v>239</v>
       </c>
-      <c r="AV60" s="28"/>
-    </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV60" s="131" t="s">
+        <v>499</v>
+      </c>
+      <c r="AW60" s="131">
+        <v>11</v>
+      </c>
+      <c r="AX60" s="28"/>
+    </row>
+    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A61" s="70">
         <v>59</v>
       </c>
@@ -6820,9 +7151,13 @@
       <c r="AU61" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="AV61" s="28"/>
-    </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV61" s="126"/>
+      <c r="AW61" s="126">
+        <v>12</v>
+      </c>
+      <c r="AX61" s="28"/>
+    </row>
+    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A62" s="70">
         <v>60</v>
       </c>
@@ -6880,9 +7215,11 @@
       <c r="AU62" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="AV62" s="28"/>
-    </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV62" s="126"/>
+      <c r="AW62" s="126"/>
+      <c r="AX62" s="28"/>
+    </row>
+    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A63" s="70">
         <v>61</v>
       </c>
@@ -6940,9 +7277,15 @@
       <c r="AU63" s="75" t="s">
         <v>240</v>
       </c>
-      <c r="AV63" s="28"/>
-    </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV63" s="131" t="s">
+        <v>504</v>
+      </c>
+      <c r="AW63" s="131">
+        <v>14</v>
+      </c>
+      <c r="AX63" s="28"/>
+    </row>
+    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A64" s="70">
         <v>62</v>
       </c>
@@ -7000,9 +7343,11 @@
       <c r="AU64" s="75" t="s">
         <v>241</v>
       </c>
-      <c r="AV64" s="28"/>
-    </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV64" s="131"/>
+      <c r="AW64" s="131"/>
+      <c r="AX64" s="28"/>
+    </row>
+    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A65" s="70">
         <v>63</v>
       </c>
@@ -7064,9 +7409,13 @@
       <c r="AU65" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="AV65" s="28"/>
-    </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV65" s="126"/>
+      <c r="AW65" s="126">
+        <v>6</v>
+      </c>
+      <c r="AX65" s="28"/>
+    </row>
+    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A66" s="70">
         <v>64</v>
       </c>
@@ -7128,9 +7477,11 @@
       <c r="AU66" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="AV66" s="28"/>
-    </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV66" s="126"/>
+      <c r="AW66" s="126"/>
+      <c r="AX66" s="28"/>
+    </row>
+    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A67" s="70">
         <v>65</v>
       </c>
@@ -7192,9 +7543,13 @@
       <c r="AU67" s="75" t="s">
         <v>311</v>
       </c>
-      <c r="AV67" s="28"/>
-    </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV67" s="131"/>
+      <c r="AW67" s="131">
+        <v>8</v>
+      </c>
+      <c r="AX67" s="28"/>
+    </row>
+    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A68" s="70">
         <v>66</v>
       </c>
@@ -7256,9 +7611,13 @@
       <c r="AU68" s="75" t="s">
         <v>490</v>
       </c>
-      <c r="AV68" s="28"/>
-    </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV68" s="131" t="s">
+        <v>494</v>
+      </c>
+      <c r="AW68" s="131"/>
+      <c r="AX68" s="28"/>
+    </row>
+    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A69" s="70">
         <v>67</v>
       </c>
@@ -7324,9 +7683,13 @@
       <c r="AU69" s="75" t="s">
         <v>485</v>
       </c>
-      <c r="AV69" s="28"/>
-    </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV69" s="131" t="s">
+        <v>495</v>
+      </c>
+      <c r="AW69" s="131"/>
+      <c r="AX69" s="28"/>
+    </row>
+    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A70" s="72">
         <v>68</v>
       </c>
@@ -7388,9 +7751,15 @@
       <c r="AU70" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="AV70" s="28"/>
-    </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV70" s="130" t="s">
+        <v>492</v>
+      </c>
+      <c r="AW70" s="130">
+        <v>9</v>
+      </c>
+      <c r="AX70" s="28"/>
+    </row>
+    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A71" s="72">
         <v>69</v>
       </c>
@@ -7452,9 +7821,15 @@
       <c r="AU71" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="AV71" s="28"/>
-    </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV71" s="130" t="s">
+        <v>493</v>
+      </c>
+      <c r="AW71" s="130">
+        <v>10</v>
+      </c>
+      <c r="AX71" s="28"/>
+    </row>
+    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A72" s="70">
         <v>70</v>
       </c>
@@ -7522,9 +7897,11 @@
       <c r="AU72" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="AV72" s="28"/>
-    </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV72" s="126"/>
+      <c r="AW72" s="126"/>
+      <c r="AX72" s="28"/>
+    </row>
+    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A73" s="70">
         <v>71</v>
       </c>
@@ -7592,9 +7969,11 @@
       <c r="AU73" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="AV73" s="28"/>
-    </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV73" s="126"/>
+      <c r="AW73" s="126"/>
+      <c r="AX73" s="28"/>
+    </row>
+    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A74" s="70">
         <v>72</v>
       </c>
@@ -7652,9 +8031,11 @@
       <c r="AU74" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="AV74" s="28"/>
-    </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV74" s="126"/>
+      <c r="AW74" s="126"/>
+      <c r="AX74" s="28"/>
+    </row>
+    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A75" s="70">
         <v>73</v>
       </c>
@@ -7710,9 +8091,11 @@
       <c r="AU75" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="AV75" s="28"/>
-    </row>
-    <row r="76" spans="1:48" ht="18" x14ac:dyDescent="0.35">
+      <c r="AV75" s="132"/>
+      <c r="AW75" s="132"/>
+      <c r="AX75" s="28"/>
+    </row>
+    <row r="76" spans="1:50" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" s="70">
         <v>74</v>
       </c>
@@ -7768,9 +8151,11 @@
       <c r="AU76" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="AV76" s="28"/>
-    </row>
-    <row r="77" spans="1:48" ht="18" x14ac:dyDescent="0.35">
+      <c r="AV76" s="125"/>
+      <c r="AW76" s="125"/>
+      <c r="AX76" s="28"/>
+    </row>
+    <row r="77" spans="1:50" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="70">
         <v>75</v>
       </c>
@@ -7826,9 +8211,11 @@
       <c r="AU77" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="AV77" s="28"/>
-    </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV77" s="125"/>
+      <c r="AW77" s="125"/>
+      <c r="AX77" s="28"/>
+    </row>
+    <row r="78" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A78" s="70">
         <v>76</v>
       </c>
@@ -7886,9 +8273,11 @@
       <c r="AU78" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="AV78" s="28"/>
-    </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV78" s="126"/>
+      <c r="AW78" s="126"/>
+      <c r="AX78" s="28"/>
+    </row>
+    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A79" s="70">
         <v>77</v>
       </c>
@@ -7954,9 +8343,13 @@
       <c r="AU79" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="AV79" s="28"/>
-    </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV79" s="126"/>
+      <c r="AW79" s="126">
+        <v>15</v>
+      </c>
+      <c r="AX79" s="28"/>
+    </row>
+    <row r="80" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A80" s="70">
         <v>78</v>
       </c>
@@ -8020,9 +8413,13 @@
       <c r="AU80" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="AV80" s="28"/>
-    </row>
-    <row r="81" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV80" s="126" t="s">
+        <v>506</v>
+      </c>
+      <c r="AW80" s="126"/>
+      <c r="AX80" s="28"/>
+    </row>
+    <row r="81" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A81" s="70">
         <v>79</v>
       </c>
@@ -8086,9 +8483,13 @@
       <c r="AU81" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="AV81" s="28"/>
-    </row>
-    <row r="82" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV81" s="126" t="s">
+        <v>506</v>
+      </c>
+      <c r="AW81" s="126"/>
+      <c r="AX81" s="28"/>
+    </row>
+    <row r="82" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A82" s="70">
         <v>80</v>
       </c>
@@ -8152,9 +8553,13 @@
       <c r="AU82" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="AV82" s="28"/>
-    </row>
-    <row r="83" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV82" s="126" t="s">
+        <v>505</v>
+      </c>
+      <c r="AW82" s="126"/>
+      <c r="AX82" s="28"/>
+    </row>
+    <row r="83" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A83" s="70">
         <v>81</v>
       </c>
@@ -8212,9 +8617,15 @@
       <c r="AU83" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="AV83" s="28"/>
-    </row>
-    <row r="84" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV83" s="126" t="s">
+        <v>501</v>
+      </c>
+      <c r="AW83" s="126">
+        <v>0</v>
+      </c>
+      <c r="AX83" s="28"/>
+    </row>
+    <row r="84" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A84" s="70">
         <v>82</v>
       </c>
@@ -8272,9 +8683,11 @@
       <c r="AU84" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="AV84" s="28"/>
-    </row>
-    <row r="85" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV84" s="126"/>
+      <c r="AW84" s="126"/>
+      <c r="AX84" s="28"/>
+    </row>
+    <row r="85" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A85" s="70">
         <v>83</v>
       </c>
@@ -8336,9 +8749,13 @@
       <c r="AU85" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="AV85" s="28"/>
-    </row>
-    <row r="86" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV85" s="131" t="s">
+        <v>507</v>
+      </c>
+      <c r="AW85" s="126"/>
+      <c r="AX85" s="28"/>
+    </row>
+    <row r="86" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A86" s="70">
         <v>84</v>
       </c>
@@ -8396,9 +8813,13 @@
       <c r="AU86" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="AV86" s="28"/>
-    </row>
-    <row r="87" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV86" s="126" t="s">
+        <v>502</v>
+      </c>
+      <c r="AW86" s="126"/>
+      <c r="AX86" s="28"/>
+    </row>
+    <row r="87" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A87" s="70">
         <v>85</v>
       </c>
@@ -8456,9 +8877,13 @@
       <c r="AU87" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="AV87" s="28"/>
-    </row>
-    <row r="88" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV87" s="131" t="s">
+        <v>503</v>
+      </c>
+      <c r="AW87" s="126"/>
+      <c r="AX87" s="28"/>
+    </row>
+    <row r="88" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A88" s="72">
         <v>86</v>
       </c>
@@ -8516,9 +8941,13 @@
       <c r="AU88" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AV88" s="28"/>
-    </row>
-    <row r="89" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV88" s="130" t="s">
+        <v>498</v>
+      </c>
+      <c r="AW88" s="130"/>
+      <c r="AX88" s="28"/>
+    </row>
+    <row r="89" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A89" s="72">
         <v>87</v>
       </c>
@@ -8576,9 +9005,13 @@
       <c r="AU89" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AV89" s="28"/>
-    </row>
-    <row r="90" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV89" s="130" t="s">
+        <v>498</v>
+      </c>
+      <c r="AW89" s="130"/>
+      <c r="AX89" s="28"/>
+    </row>
+    <row r="90" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A90" s="70">
         <v>88</v>
       </c>
@@ -8636,9 +9069,11 @@
       <c r="AU90" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="AV90" s="28"/>
-    </row>
-    <row r="91" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV90" s="126"/>
+      <c r="AW90" s="126"/>
+      <c r="AX90" s="28"/>
+    </row>
+    <row r="91" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A91" s="70">
         <v>89</v>
       </c>
@@ -8706,9 +9141,11 @@
       <c r="AU91" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="AV91" s="28"/>
-    </row>
-    <row r="92" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV91" s="126"/>
+      <c r="AW91" s="126"/>
+      <c r="AX91" s="28"/>
+    </row>
+    <row r="92" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A92" s="70">
         <v>90</v>
       </c>
@@ -8772,9 +9209,13 @@
       <c r="AU92" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="AV92" s="28"/>
-    </row>
-    <row r="93" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV92" s="126"/>
+      <c r="AW92" s="126">
+        <v>4</v>
+      </c>
+      <c r="AX92" s="28"/>
+    </row>
+    <row r="93" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A93" s="70">
         <v>91</v>
       </c>
@@ -8838,9 +9279,11 @@
       <c r="AU93" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="AV93" s="28"/>
-    </row>
-    <row r="94" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV93" s="126"/>
+      <c r="AW93" s="126"/>
+      <c r="AX93" s="28"/>
+    </row>
+    <row r="94" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A94" s="70">
         <v>92</v>
       </c>
@@ -8902,9 +9345,13 @@
       <c r="AU94" s="118" t="s">
         <v>291</v>
       </c>
-      <c r="AV94" s="28"/>
-    </row>
-    <row r="95" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV94" s="133" t="s">
+        <v>496</v>
+      </c>
+      <c r="AW94" s="133"/>
+      <c r="AX94" s="28"/>
+    </row>
+    <row r="95" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A95" s="70">
         <v>93</v>
       </c>
@@ -8966,9 +9413,13 @@
       <c r="AU95" s="75" t="s">
         <v>478</v>
       </c>
-      <c r="AV95" s="28"/>
-    </row>
-    <row r="96" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV95" s="131" t="s">
+        <v>496</v>
+      </c>
+      <c r="AW95" s="131"/>
+      <c r="AX95" s="28"/>
+    </row>
+    <row r="96" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A96" s="70">
         <v>94</v>
       </c>
@@ -9024,9 +9475,11 @@
       <c r="AU96" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="AV96" s="28"/>
-    </row>
-    <row r="97" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV96" s="128"/>
+      <c r="AW96" s="128"/>
+      <c r="AX96" s="28"/>
+    </row>
+    <row r="97" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A97" s="72">
         <v>95</v>
       </c>
@@ -9090,9 +9543,11 @@
       <c r="AU97" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="AV97" s="28"/>
-    </row>
-    <row r="98" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV97" s="129"/>
+      <c r="AW97" s="129"/>
+      <c r="AX97" s="28"/>
+    </row>
+    <row r="98" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A98" s="72">
         <v>96</v>
       </c>
@@ -9156,9 +9611,11 @@
       <c r="AU98" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="AV98" s="28"/>
-    </row>
-    <row r="99" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV98" s="129"/>
+      <c r="AW98" s="129"/>
+      <c r="AX98" s="28"/>
+    </row>
+    <row r="99" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A99" s="70">
         <v>97</v>
       </c>
@@ -9216,9 +9673,11 @@
       <c r="AU99" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="AV99" s="28"/>
-    </row>
-    <row r="100" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV99" s="126"/>
+      <c r="AW99" s="126"/>
+      <c r="AX99" s="28"/>
+    </row>
+    <row r="100" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A100" s="70">
         <v>98</v>
       </c>
@@ -9274,9 +9733,13 @@
       <c r="AU100" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="AV100" s="28"/>
-    </row>
-    <row r="101" spans="1:48" ht="18" x14ac:dyDescent="0.35">
+      <c r="AV100" s="126"/>
+      <c r="AW100" s="126">
+        <v>1</v>
+      </c>
+      <c r="AX100" s="28"/>
+    </row>
+    <row r="101" spans="1:50" ht="18" x14ac:dyDescent="0.35">
       <c r="A101" s="70">
         <v>99</v>
       </c>
@@ -9332,9 +9795,11 @@
       <c r="AU101" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="AV101" s="28"/>
-    </row>
-    <row r="102" spans="1:48" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AV101" s="125"/>
+      <c r="AW101" s="125"/>
+      <c r="AX101" s="28"/>
+    </row>
+    <row r="102" spans="1:50" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="71">
         <v>100</v>
       </c>
@@ -9390,78 +9855,80 @@
       <c r="AU102" s="119" t="s">
         <v>263</v>
       </c>
-      <c r="AV102" s="34"/>
-    </row>
-    <row r="103" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AV102" s="59"/>
+      <c r="AW102" s="59"/>
+      <c r="AX102" s="34"/>
+    </row>
+    <row r="103" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>187</v>
       </c>
       <c r="B103" s="30"/>
       <c r="C103" s="30"/>
-      <c r="D103" s="149" t="s">
+      <c r="D103" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="E103" s="149"/>
-      <c r="F103" s="149"/>
-      <c r="G103" s="149" t="s">
+      <c r="E103" s="143"/>
+      <c r="F103" s="143"/>
+      <c r="G103" s="143" t="s">
         <v>205</v>
       </c>
-      <c r="H103" s="149"/>
-      <c r="I103" s="149"/>
-      <c r="J103" s="149"/>
-      <c r="K103" s="149" t="s">
+      <c r="H103" s="143"/>
+      <c r="I103" s="143"/>
+      <c r="J103" s="143"/>
+      <c r="K103" s="143" t="s">
         <v>206</v>
       </c>
-      <c r="L103" s="149"/>
-      <c r="M103" s="149"/>
-      <c r="N103" s="149" t="s">
+      <c r="L103" s="143"/>
+      <c r="M103" s="143"/>
+      <c r="N103" s="143" t="s">
         <v>209</v>
       </c>
-      <c r="O103" s="149"/>
+      <c r="O103" s="143"/>
       <c r="P103" s="35" t="s">
         <v>283</v>
       </c>
       <c r="Q103" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="R103" s="148" t="s">
+      <c r="R103" s="142" t="s">
         <v>217</v>
       </c>
-      <c r="S103" s="148"/>
-      <c r="T103" s="148" t="s">
+      <c r="S103" s="142"/>
+      <c r="T103" s="142" t="s">
         <v>114</v>
       </c>
-      <c r="U103" s="148"/>
-      <c r="V103" s="149" t="s">
+      <c r="U103" s="142"/>
+      <c r="V103" s="143" t="s">
         <v>486</v>
       </c>
-      <c r="W103" s="149"/>
-      <c r="X103" s="149"/>
+      <c r="W103" s="143"/>
+      <c r="X103" s="143"/>
       <c r="Y103" s="35" t="s">
         <v>216</v>
       </c>
       <c r="Z103" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="AA103" s="148" t="s">
+      <c r="AA103" s="142" t="s">
         <v>218</v>
       </c>
-      <c r="AB103" s="148"/>
-      <c r="AC103" s="148"/>
-      <c r="AD103" s="148" t="s">
+      <c r="AB103" s="142"/>
+      <c r="AC103" s="142"/>
+      <c r="AD103" s="142" t="s">
         <v>224</v>
       </c>
-      <c r="AE103" s="148"/>
+      <c r="AE103" s="142"/>
       <c r="AF103" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="AG103" s="145"/>
-      <c r="AH103" s="145"/>
+      <c r="AG103" s="139"/>
+      <c r="AH103" s="139"/>
       <c r="AI103" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="AJ103" s="145"/>
-      <c r="AK103" s="145"/>
+      <c r="AJ103" s="139"/>
+      <c r="AK103" s="139"/>
       <c r="AL103" s="35" t="s">
         <v>129</v>
       </c>
@@ -9485,14 +9952,16 @@
       <c r="AT103" s="30"/>
       <c r="AU103" s="120"/>
       <c r="AV103" s="30"/>
-    </row>
-    <row r="105" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW103" s="30"/>
+      <c r="AX103" s="30"/>
+    </row>
+    <row r="105" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B105" s="77"/>
       <c r="C105" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="106" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B106" s="78" t="s">
         <v>260</v>
       </c>
@@ -9500,25 +9969,25 @@
         <v>298</v>
       </c>
     </row>
-    <row r="108" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="109" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="110" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="10" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="112" spans="1:48" ht="18" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:50" ht="18" x14ac:dyDescent="0.35">
       <c r="A112" s="79" t="s">
         <v>261</v>
       </c>
@@ -9544,6 +10013,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="AS1:AS2"/>
+    <mergeCell ref="AT1:AT2"/>
+    <mergeCell ref="AU1:AU2"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="AN1:AN2"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="AG103:AH103"/>
     <mergeCell ref="AJ103:AK103"/>
     <mergeCell ref="B1:B2"/>
@@ -9560,26 +10049,6 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="AS1:AS2"/>
-    <mergeCell ref="AT1:AT2"/>
-    <mergeCell ref="AU1:AU2"/>
-    <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="AM1:AM2"/>
-    <mergeCell ref="AN1:AN2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9588,6 +10057,342 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64FC7F0-16BD-4BC4-BAD6-8945EBF765FA}">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="17" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="138">
+        <v>0</v>
+      </c>
+      <c r="C1" s="138">
+        <v>1</v>
+      </c>
+      <c r="D1" s="138">
+        <v>2</v>
+      </c>
+      <c r="E1" s="138">
+        <v>3</v>
+      </c>
+      <c r="F1" s="138">
+        <v>4</v>
+      </c>
+      <c r="G1" s="138">
+        <v>5</v>
+      </c>
+      <c r="H1" s="138">
+        <v>6</v>
+      </c>
+      <c r="I1" s="138">
+        <v>7</v>
+      </c>
+      <c r="J1" s="138">
+        <v>8</v>
+      </c>
+      <c r="K1" s="138">
+        <v>9</v>
+      </c>
+      <c r="L1" s="138">
+        <v>10</v>
+      </c>
+      <c r="M1" s="138">
+        <v>11</v>
+      </c>
+      <c r="N1" s="138">
+        <v>12</v>
+      </c>
+      <c r="O1" s="138">
+        <v>13</v>
+      </c>
+      <c r="P1" s="138">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="138">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="176" t="s">
+        <v>514</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J2" t="s">
+        <v>490</v>
+      </c>
+      <c r="K2" s="102" t="s">
+        <v>291</v>
+      </c>
+      <c r="L2" s="102" t="s">
+        <v>522</v>
+      </c>
+      <c r="M2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N2" t="s">
+        <v>195</v>
+      </c>
+      <c r="O2" t="s">
+        <v>169</v>
+      </c>
+      <c r="P2" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q2" s="102" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="176" t="s">
+        <v>515</v>
+      </c>
+      <c r="B3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="102" t="s">
+        <v>292</v>
+      </c>
+      <c r="E3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="102" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" t="s">
+        <v>528</v>
+      </c>
+      <c r="I3" t="s">
+        <v>529</v>
+      </c>
+      <c r="J3" t="s">
+        <v>489</v>
+      </c>
+      <c r="K3" t="s">
+        <v>489</v>
+      </c>
+      <c r="L3" t="s">
+        <v>473</v>
+      </c>
+      <c r="M3" t="s">
+        <v>470</v>
+      </c>
+      <c r="N3" t="s">
+        <v>219</v>
+      </c>
+      <c r="O3" t="s">
+        <v>220</v>
+      </c>
+      <c r="P3" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="176" t="s">
+        <v>516</v>
+      </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H4" s="102" t="s">
+        <v>211</v>
+      </c>
+      <c r="I4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J4" s="102" t="s">
+        <v>311</v>
+      </c>
+      <c r="K4" t="s">
+        <v>485</v>
+      </c>
+      <c r="L4" t="s">
+        <v>523</v>
+      </c>
+      <c r="M4" t="s">
+        <v>524</v>
+      </c>
+      <c r="N4" t="s">
+        <v>525</v>
+      </c>
+      <c r="O4" t="s">
+        <v>287</v>
+      </c>
+      <c r="P4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="176" t="s">
+        <v>517</v>
+      </c>
+      <c r="B5" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="175" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5" s="175" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" t="s">
+        <v>526</v>
+      </c>
+      <c r="H5" t="s">
+        <v>527</v>
+      </c>
+      <c r="I5" t="s">
+        <v>295</v>
+      </c>
+      <c r="J5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K5" t="s">
+        <v>521</v>
+      </c>
+      <c r="L5" s="175" t="s">
+        <v>238</v>
+      </c>
+      <c r="M5" s="102" t="s">
+        <v>484</v>
+      </c>
+      <c r="N5" s="102" t="s">
+        <v>207</v>
+      </c>
+      <c r="O5" t="s">
+        <v>208</v>
+      </c>
+      <c r="P5" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q5" s="175" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="176" t="s">
+        <v>518</v>
+      </c>
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="102" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="102" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="102" t="s">
+        <v>235</v>
+      </c>
+      <c r="H6" t="s">
+        <v>236</v>
+      </c>
+      <c r="I6" s="102" t="s">
+        <v>237</v>
+      </c>
+      <c r="J6" t="s">
+        <v>243</v>
+      </c>
+      <c r="K6" t="s">
+        <v>242</v>
+      </c>
+      <c r="L6" t="s">
+        <v>245</v>
+      </c>
+      <c r="M6" t="s">
+        <v>244</v>
+      </c>
+      <c r="N6" t="s">
+        <v>247</v>
+      </c>
+      <c r="O6" t="s">
+        <v>246</v>
+      </c>
+      <c r="P6" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B3C08E-0010-45B5-9850-80CB53AC9E73}">
   <dimension ref="A1:U45"/>
   <sheetViews>
@@ -9618,35 +10423,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="168" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="150" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="168" t="s">
         <v>317</v>
       </c>
-      <c r="D1" s="152"/>
-      <c r="E1" s="153"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="171"/>
       <c r="F1" s="82" t="s">
         <v>450</v>
       </c>
-      <c r="G1" s="154" t="s">
+      <c r="G1" s="172" t="s">
         <v>182</v>
       </c>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="155"/>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="155"/>
-      <c r="T1" s="155"/>
-      <c r="U1" s="156"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="174"/>
     </row>
     <row r="2" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="114" t="s">
@@ -11156,4 +11961,1767 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3898B9-5A59-4B91-AAF0-769D55C128D6}">
+  <dimension ref="A1:F114"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="140" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="135" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="162" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="160" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="136" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="149"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="163"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="137"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="74">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="123"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="70">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="70">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="124"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="70">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="70">
+        <v>5</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="124"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="70">
+        <v>6</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="125"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="70">
+        <v>7</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="F9" s="124"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="70">
+        <v>8</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="126"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="70">
+        <v>9</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="126"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="70">
+        <v>10</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" s="125"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="70">
+        <v>11</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="125"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="70">
+        <v>12</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="127"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="70">
+        <v>13</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="127"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="70">
+        <v>14</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="128"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="70">
+        <v>15</v>
+      </c>
+      <c r="B17" s="53"/>
+      <c r="C17" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" s="126"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="70">
+        <v>16</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="F18" s="126"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="70">
+        <v>17</v>
+      </c>
+      <c r="B19" s="53"/>
+      <c r="C19" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F19" s="126"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="70">
+        <v>18</v>
+      </c>
+      <c r="B20" s="53"/>
+      <c r="C20" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="F20" s="126"/>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="70">
+        <v>19</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="F21" s="125"/>
+    </row>
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="70">
+        <v>20</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="F22" s="127"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="70">
+        <v>21</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="F23" s="127"/>
+    </row>
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="70">
+        <v>22</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="F24" s="125"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="70">
+        <v>23</v>
+      </c>
+      <c r="B25" s="53"/>
+      <c r="C25" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="F25" s="126"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="70">
+        <v>24</v>
+      </c>
+      <c r="B26" s="53"/>
+      <c r="C26" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="126"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="70">
+        <v>25</v>
+      </c>
+      <c r="B27" s="53"/>
+      <c r="C27" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="F27" s="126"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="70">
+        <v>26</v>
+      </c>
+      <c r="B28" s="53"/>
+      <c r="C28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="F28" s="126"/>
+    </row>
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="70">
+        <v>27</v>
+      </c>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="F29" s="125"/>
+    </row>
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="70">
+        <v>28</v>
+      </c>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="F30" s="125"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="72">
+        <v>29</v>
+      </c>
+      <c r="B31" s="53"/>
+      <c r="C31" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E31" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="F31" s="129"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="72">
+        <v>30</v>
+      </c>
+      <c r="B32" s="53"/>
+      <c r="C32" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E32" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="F32" s="129"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="70">
+        <v>31</v>
+      </c>
+      <c r="B33" s="53"/>
+      <c r="C33" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="F33" s="124"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="72">
+        <v>32</v>
+      </c>
+      <c r="B34" s="53"/>
+      <c r="C34" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="F34" s="129"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="70">
+        <v>33</v>
+      </c>
+      <c r="B35" s="53"/>
+      <c r="C35" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="F35" s="126"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="70">
+        <v>34</v>
+      </c>
+      <c r="B36" s="53"/>
+      <c r="C36" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="F36" s="126"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="70">
+        <v>35</v>
+      </c>
+      <c r="B37" s="53"/>
+      <c r="C37" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="F37" s="126"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="70">
+        <v>36</v>
+      </c>
+      <c r="B38" s="53"/>
+      <c r="C38" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="F38" s="126"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="70">
+        <v>37</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="70">
+        <v>38</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="70">
+        <v>39</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E41" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="126"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="70">
+        <v>40</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="E42" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="126"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="70">
+        <v>41</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="E43" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="126"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="70">
+        <v>42</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="E44" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="126"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="70">
+        <v>43</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="E45" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" s="126"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="70">
+        <v>44</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="E46" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" s="126"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="70">
+        <v>45</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="E47" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" s="126"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="70">
+        <v>46</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="F48" s="124"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="70">
+        <v>47</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="F49" s="126"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="70">
+        <v>48</v>
+      </c>
+      <c r="B50" s="54"/>
+      <c r="C50" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="F50" s="126"/>
+    </row>
+    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="70">
+        <v>49</v>
+      </c>
+      <c r="B51" s="44"/>
+      <c r="C51" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="E51" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="F51" s="125"/>
+    </row>
+    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="70">
+        <v>50</v>
+      </c>
+      <c r="B52" s="44"/>
+      <c r="C52" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="E52" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="F52" s="125"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="72">
+        <v>51</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="66" t="s">
+        <v>481</v>
+      </c>
+      <c r="E53" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="F53" s="130"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="72">
+        <v>52</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="66" t="s">
+        <v>481</v>
+      </c>
+      <c r="E54" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="F54" s="130"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="72">
+        <v>53</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="66" t="s">
+        <v>481</v>
+      </c>
+      <c r="E55" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="F55" s="130"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="72">
+        <v>54</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="66" t="s">
+        <v>481</v>
+      </c>
+      <c r="E56" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="F56" s="130"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="70">
+        <v>55</v>
+      </c>
+      <c r="B57" s="54"/>
+      <c r="C57" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="75" t="s">
+        <v>508</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="F57" s="131"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="70">
+        <v>56</v>
+      </c>
+      <c r="B58" s="54"/>
+      <c r="C58" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="75" t="s">
+        <v>508</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" s="131"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="70">
+        <v>57</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="131"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="70">
+        <v>58</v>
+      </c>
+      <c r="B60" s="54"/>
+      <c r="C60" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="75" t="s">
+        <v>484</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" s="131">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="70">
+        <v>59</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F61" s="126">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="70">
+        <v>60</v>
+      </c>
+      <c r="B62" s="54"/>
+      <c r="C62" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="F62" s="126"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="70">
+        <v>61</v>
+      </c>
+      <c r="B63" s="54"/>
+      <c r="C63" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F63" s="131">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="70">
+        <v>62</v>
+      </c>
+      <c r="B64" s="54"/>
+      <c r="C64" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F64" s="131"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="70">
+        <v>63</v>
+      </c>
+      <c r="B65" s="54"/>
+      <c r="C65" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F65" s="126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="70">
+        <v>64</v>
+      </c>
+      <c r="B66" s="54"/>
+      <c r="C66" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="F66" s="126"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="70">
+        <v>65</v>
+      </c>
+      <c r="B67" s="54"/>
+      <c r="C67" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F67" s="131">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="70">
+        <v>66</v>
+      </c>
+      <c r="B68" s="54"/>
+      <c r="C68" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="75" t="s">
+        <v>509</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F68" s="131"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="70">
+        <v>67</v>
+      </c>
+      <c r="B69" s="54"/>
+      <c r="C69" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="75" t="s">
+        <v>490</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F69" s="131"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="72">
+        <v>68</v>
+      </c>
+      <c r="B70" s="54"/>
+      <c r="C70" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="66" t="s">
+        <v>291</v>
+      </c>
+      <c r="E70" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="F70" s="130">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="72">
+        <v>69</v>
+      </c>
+      <c r="B71" s="54"/>
+      <c r="C71" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" s="66" t="s">
+        <v>478</v>
+      </c>
+      <c r="E71" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="F71" s="130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="70">
+        <v>70</v>
+      </c>
+      <c r="B72" s="54"/>
+      <c r="C72" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" s="126"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="70">
+        <v>71</v>
+      </c>
+      <c r="B73" s="54"/>
+      <c r="C73" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="F73" s="126"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="70">
+        <v>72</v>
+      </c>
+      <c r="B74" s="54"/>
+      <c r="C74" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F74" s="126"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="70">
+        <v>73</v>
+      </c>
+      <c r="B75" s="56"/>
+      <c r="C75" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E75" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="F75" s="132"/>
+    </row>
+    <row r="76" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A76" s="70">
+        <v>74</v>
+      </c>
+      <c r="B76" s="44"/>
+      <c r="C76" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D76" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="E76" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="F76" s="125"/>
+    </row>
+    <row r="77" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A77" s="70">
+        <v>75</v>
+      </c>
+      <c r="B77" s="44"/>
+      <c r="C77" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D77" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="E77" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="F77" s="125"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="70">
+        <v>76</v>
+      </c>
+      <c r="B78" s="54"/>
+      <c r="C78" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="F78" s="126"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="70">
+        <v>77</v>
+      </c>
+      <c r="B79" s="54"/>
+      <c r="C79" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E79" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="F79" s="126">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="70">
+        <v>78</v>
+      </c>
+      <c r="B80" s="54"/>
+      <c r="C80" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="E80" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="F80" s="126"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="70">
+        <v>79</v>
+      </c>
+      <c r="B81" s="54"/>
+      <c r="C81" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="F81" s="126"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="70">
+        <v>80</v>
+      </c>
+      <c r="B82" s="54"/>
+      <c r="C82" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F82" s="126"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="70">
+        <v>81</v>
+      </c>
+      <c r="B83" s="54"/>
+      <c r="C83" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="E83" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F83" s="126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="70">
+        <v>82</v>
+      </c>
+      <c r="B84" s="54"/>
+      <c r="C84" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="E84" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F84" s="126"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="70">
+        <v>83</v>
+      </c>
+      <c r="B85" s="54"/>
+      <c r="C85" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D85" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="E85" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="F85" s="126"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="70">
+        <v>84</v>
+      </c>
+      <c r="B86" s="54"/>
+      <c r="C86" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="E86" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F86" s="126"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="70">
+        <v>85</v>
+      </c>
+      <c r="B87" s="54"/>
+      <c r="C87" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D87" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="E87" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F87" s="126"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="72">
+        <v>86</v>
+      </c>
+      <c r="B88" s="54"/>
+      <c r="C88" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88" s="66" t="s">
+        <v>511</v>
+      </c>
+      <c r="E88" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="F88" s="130"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="72">
+        <v>87</v>
+      </c>
+      <c r="B89" s="54"/>
+      <c r="C89" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" s="66" t="s">
+        <v>511</v>
+      </c>
+      <c r="E89" s="66" t="s">
+        <v>227</v>
+      </c>
+      <c r="F89" s="130"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="70">
+        <v>88</v>
+      </c>
+      <c r="B90" s="54"/>
+      <c r="C90" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D90" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E90" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F90" s="126"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="70">
+        <v>89</v>
+      </c>
+      <c r="B91" s="54"/>
+      <c r="C91" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D91" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E91" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="F91" s="126"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="70">
+        <v>90</v>
+      </c>
+      <c r="B92" s="54"/>
+      <c r="C92" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D92" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E92" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F92" s="126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="70">
+        <v>91</v>
+      </c>
+      <c r="B93" s="53"/>
+      <c r="C93" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D93" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E93" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="F93" s="126"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="70">
+        <v>92</v>
+      </c>
+      <c r="B94" s="54"/>
+      <c r="C94" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D94" s="118" t="s">
+        <v>512</v>
+      </c>
+      <c r="E94" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F94" s="133"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="70">
+        <v>93</v>
+      </c>
+      <c r="B95" s="54"/>
+      <c r="C95" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" s="75" t="s">
+        <v>512</v>
+      </c>
+      <c r="E95" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F95" s="131"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="70">
+        <v>94</v>
+      </c>
+      <c r="B96" s="51"/>
+      <c r="C96" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D96" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="E96" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="F96" s="128"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="72">
+        <v>95</v>
+      </c>
+      <c r="B97" s="54"/>
+      <c r="C97" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="E97" s="66" t="s">
+        <v>487</v>
+      </c>
+      <c r="F97" s="129"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="72">
+        <v>96</v>
+      </c>
+      <c r="B98" s="54"/>
+      <c r="C98" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="E98" s="66" t="s">
+        <v>488</v>
+      </c>
+      <c r="F98" s="129"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="70">
+        <v>97</v>
+      </c>
+      <c r="B99" s="54"/>
+      <c r="C99" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D99" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="E99" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F99" s="126"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="70">
+        <v>98</v>
+      </c>
+      <c r="B100" s="54"/>
+      <c r="C100" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D100" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="E100" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F100" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A101" s="70">
+        <v>99</v>
+      </c>
+      <c r="B101" s="44"/>
+      <c r="C101" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D101" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="E101" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="F101" s="125"/>
+    </row>
+    <row r="102" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="71">
+        <v>100</v>
+      </c>
+      <c r="B102" s="58"/>
+      <c r="C102" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="D102" s="119" t="s">
+        <v>263</v>
+      </c>
+      <c r="E102" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="F102" s="134"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="120"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="77"/>
+      <c r="C105" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="6"/>
+      <c r="B108" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="7"/>
+      <c r="B109" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+      <c r="B110" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A112" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/hw/pinout.xlsx
+++ b/hw/pinout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\working\RB3204-RBCX_hw\hw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robotarna\RB3204-RBCX_hw\hw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF86E83-3A4C-4E7F-9CD7-29BAAFBBF434}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1B09AA-B6C5-4156-9F8D-5313CFD9DA46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{08978B24-E42F-429B-A3F9-EF8F7AA6C2ED}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{08978B24-E42F-429B-A3F9-EF8F7AA6C2ED}"/>
   </bookViews>
   <sheets>
     <sheet name="koprocesor" sheetId="2" r:id="rId1"/>
@@ -2588,41 +2588,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2647,6 +2612,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2659,6 +2642,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3000,10 +3000,10 @@
   <dimension ref="A1:BQ114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AS3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BB4" sqref="BB4"/>
+      <selection pane="bottomRight" activeCell="AS83" sqref="AS83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3057,90 +3057,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="160" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="163" t="s">
         <v>254</v>
       </c>
       <c r="C1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="147" t="s">
+      <c r="D1" s="151" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="151"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="147" t="s">
+      <c r="E1" s="159"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="147" t="s">
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="151" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="151"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="147" t="s">
+      <c r="L1" s="159"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="148"/>
-      <c r="P1" s="145" t="s">
+      <c r="O1" s="152"/>
+      <c r="P1" s="149" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="145" t="s">
+      <c r="Q1" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="147" t="s">
+      <c r="R1" s="151" t="s">
         <v>114</v>
       </c>
-      <c r="S1" s="148"/>
-      <c r="T1" s="147" t="s">
+      <c r="S1" s="152"/>
+      <c r="T1" s="151" t="s">
         <v>113</v>
       </c>
-      <c r="U1" s="148"/>
-      <c r="V1" s="147" t="s">
+      <c r="U1" s="152"/>
+      <c r="V1" s="151" t="s">
         <v>115</v>
       </c>
-      <c r="W1" s="151"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="145" t="s">
+      <c r="W1" s="159"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="149" t="s">
         <v>296</v>
       </c>
-      <c r="Z1" s="145" t="s">
+      <c r="Z1" s="149" t="s">
         <v>297</v>
       </c>
-      <c r="AA1" s="147" t="s">
+      <c r="AA1" s="151" t="s">
         <v>122</v>
       </c>
-      <c r="AB1" s="151"/>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="147" t="s">
+      <c r="AB1" s="159"/>
+      <c r="AC1" s="152"/>
+      <c r="AD1" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="AE1" s="148"/>
+      <c r="AE1" s="152"/>
       <c r="AF1" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="AG1" s="152" t="s">
+      <c r="AG1" s="153" t="s">
         <v>124</v>
       </c>
-      <c r="AH1" s="153"/>
-      <c r="AI1" s="145" t="s">
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="AJ1" s="152" t="s">
+      <c r="AJ1" s="153" t="s">
         <v>126</v>
       </c>
-      <c r="AK1" s="153"/>
-      <c r="AL1" s="145" t="s">
+      <c r="AK1" s="154"/>
+      <c r="AL1" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="AM1" s="162" t="s">
+      <c r="AM1" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="AN1" s="145" t="s">
+      <c r="AN1" s="149" t="s">
         <v>150</v>
       </c>
       <c r="AO1" s="7" t="s">
@@ -3155,28 +3155,28 @@
       <c r="AR1" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="AS1" s="154" t="s">
+      <c r="AS1" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="AT1" s="156" t="s">
+      <c r="AT1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="AU1" s="158" t="s">
+      <c r="AU1" s="145" t="s">
         <v>181</v>
       </c>
-      <c r="AV1" s="164" t="s">
+      <c r="AV1" s="157" t="s">
         <v>182</v>
       </c>
       <c r="AW1" s="66" t="s">
         <v>468</v>
       </c>
-      <c r="AX1" s="160" t="s">
+      <c r="AX1" s="147" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="150"/>
-      <c r="B2" s="143"/>
+      <c r="A2" s="161"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="67" t="s">
         <v>96</v>
       </c>
@@ -3216,8 +3216,8 @@
       <c r="O2" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
+      <c r="P2" s="150"/>
+      <c r="Q2" s="150"/>
       <c r="R2" s="68" t="s">
         <v>105</v>
       </c>
@@ -3239,8 +3239,8 @@
       <c r="X2" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="Y2" s="146"/>
-      <c r="Z2" s="146"/>
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="150"/>
       <c r="AA2" s="68" t="s">
         <v>101</v>
       </c>
@@ -3263,26 +3263,26 @@
       <c r="AH2" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="AI2" s="146"/>
+      <c r="AI2" s="150"/>
       <c r="AJ2" s="68" t="s">
         <v>105</v>
       </c>
       <c r="AK2" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="AL2" s="146"/>
-      <c r="AM2" s="163"/>
-      <c r="AN2" s="146"/>
+      <c r="AL2" s="150"/>
+      <c r="AM2" s="156"/>
+      <c r="AN2" s="150"/>
       <c r="AO2" s="75"/>
       <c r="AP2" s="75"/>
       <c r="AQ2" s="75"/>
       <c r="AR2" s="75"/>
-      <c r="AS2" s="155"/>
-      <c r="AT2" s="157"/>
-      <c r="AU2" s="159"/>
-      <c r="AV2" s="165"/>
+      <c r="AS2" s="142"/>
+      <c r="AT2" s="144"/>
+      <c r="AU2" s="146"/>
+      <c r="AV2" s="158"/>
       <c r="AW2" s="76"/>
-      <c r="AX2" s="161"/>
+      <c r="AX2" s="148"/>
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" s="77">
@@ -3643,7 +3643,7 @@
         <v>250</v>
       </c>
       <c r="BD6" s="34" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="BE6" s="54" t="s">
         <v>198</v>
@@ -3895,7 +3895,7 @@
         <v>232</v>
       </c>
       <c r="BL8" s="34" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="BM8" s="34" t="s">
         <v>285</v>
@@ -6121,7 +6121,7 @@
         <v>32</v>
       </c>
       <c r="AV39" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AW39" s="98">
         <v>2</v>
@@ -7437,7 +7437,7 @@
         <v>50</v>
       </c>
       <c r="AV59" s="113" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AW59" s="118">
         <v>10</v>
@@ -10330,70 +10330,70 @@
       </c>
       <c r="B103"/>
       <c r="C103"/>
-      <c r="D103" s="144" t="s">
+      <c r="D103" s="165" t="s">
         <v>246</v>
       </c>
-      <c r="E103" s="144"/>
-      <c r="F103" s="144"/>
-      <c r="G103" s="144" t="s">
+      <c r="E103" s="165"/>
+      <c r="F103" s="165"/>
+      <c r="G103" s="165" t="s">
         <v>203</v>
       </c>
-      <c r="H103" s="144"/>
-      <c r="I103" s="144"/>
-      <c r="J103" s="144"/>
-      <c r="K103" s="144" t="s">
+      <c r="H103" s="165"/>
+      <c r="I103" s="165"/>
+      <c r="J103" s="165"/>
+      <c r="K103" s="165" t="s">
         <v>204</v>
       </c>
-      <c r="L103" s="144"/>
-      <c r="M103" s="144"/>
-      <c r="N103" s="144" t="s">
+      <c r="L103" s="165"/>
+      <c r="M103" s="165"/>
+      <c r="N103" s="165" t="s">
         <v>207</v>
       </c>
-      <c r="O103" s="144"/>
+      <c r="O103" s="165"/>
       <c r="P103" s="34" t="s">
         <v>208</v>
       </c>
       <c r="Q103" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="R103" s="144" t="s">
+      <c r="R103" s="165" t="s">
         <v>471</v>
       </c>
-      <c r="S103" s="144"/>
-      <c r="T103" s="144" t="s">
+      <c r="S103" s="165"/>
+      <c r="T103" s="165" t="s">
         <v>470</v>
       </c>
-      <c r="U103" s="144"/>
-      <c r="V103" s="144" t="s">
+      <c r="U103" s="165"/>
+      <c r="V103" s="165" t="s">
         <v>469</v>
       </c>
-      <c r="W103" s="144"/>
-      <c r="X103" s="144"/>
+      <c r="W103" s="165"/>
+      <c r="X103" s="165"/>
       <c r="Y103" s="34" t="s">
         <v>213</v>
       </c>
       <c r="Z103" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="AA103" s="144" t="s">
+      <c r="AA103" s="165" t="s">
         <v>214</v>
       </c>
-      <c r="AB103" s="144"/>
-      <c r="AC103" s="144"/>
-      <c r="AD103" s="144" t="s">
+      <c r="AB103" s="165"/>
+      <c r="AC103" s="165"/>
+      <c r="AD103" s="165" t="s">
         <v>220</v>
       </c>
-      <c r="AE103" s="144"/>
+      <c r="AE103" s="165"/>
       <c r="AF103" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="AG103" s="141"/>
-      <c r="AH103" s="141"/>
+      <c r="AG103" s="162"/>
+      <c r="AH103" s="162"/>
       <c r="AI103" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="AJ103" s="141"/>
-      <c r="AK103" s="141"/>
+      <c r="AJ103" s="162"/>
+      <c r="AK103" s="162"/>
       <c r="AL103" s="34" t="s">
         <v>128</v>
       </c>
@@ -10478,27 +10478,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AS1:AS2"/>
-    <mergeCell ref="AT1:AT2"/>
-    <mergeCell ref="AU1:AU2"/>
-    <mergeCell ref="AX1:AX2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="AM1:AM2"/>
-    <mergeCell ref="AN1:AN2"/>
-    <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="AG103:AH103"/>
     <mergeCell ref="AJ103:AK103"/>
     <mergeCell ref="B1:B2"/>
@@ -10515,6 +10494,27 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="AS1:AS2"/>
+    <mergeCell ref="AT1:AT2"/>
+    <mergeCell ref="AU1:AU2"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="AN1:AN2"/>
+    <mergeCell ref="AV1:AV2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/hw/pinout.xlsx
+++ b/hw/pinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robotarna\RB3204-RBCX_hw\hw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1B09AA-B6C5-4156-9F8D-5313CFD9DA46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C2B815-E7F9-44DF-AF22-90A9559643BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{08978B24-E42F-429B-A3F9-EF8F7AA6C2ED}"/>
   </bookViews>
@@ -2588,6 +2588,41 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2612,24 +2647,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2642,23 +2659,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3000,10 +3000,10 @@
   <dimension ref="A1:BQ114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AQ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AS83" sqref="AS83"/>
+      <selection pane="bottomRight" activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3057,90 +3057,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="149" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="142" t="s">
         <v>254</v>
       </c>
       <c r="C1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="151" t="s">
+      <c r="D1" s="147" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="159"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="151" t="s">
+      <c r="E1" s="151"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="147" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="151" t="s">
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="147" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="159"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="151" t="s">
+      <c r="L1" s="151"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="152"/>
-      <c r="P1" s="149" t="s">
+      <c r="O1" s="148"/>
+      <c r="P1" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="149" t="s">
+      <c r="Q1" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="151" t="s">
+      <c r="R1" s="147" t="s">
         <v>114</v>
       </c>
-      <c r="S1" s="152"/>
-      <c r="T1" s="151" t="s">
+      <c r="S1" s="148"/>
+      <c r="T1" s="147" t="s">
         <v>113</v>
       </c>
-      <c r="U1" s="152"/>
-      <c r="V1" s="151" t="s">
+      <c r="U1" s="148"/>
+      <c r="V1" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="W1" s="159"/>
-      <c r="X1" s="152"/>
-      <c r="Y1" s="149" t="s">
+      <c r="W1" s="151"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="145" t="s">
         <v>296</v>
       </c>
-      <c r="Z1" s="149" t="s">
+      <c r="Z1" s="145" t="s">
         <v>297</v>
       </c>
-      <c r="AA1" s="151" t="s">
+      <c r="AA1" s="147" t="s">
         <v>122</v>
       </c>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="152"/>
-      <c r="AD1" s="151" t="s">
+      <c r="AB1" s="151"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="147" t="s">
         <v>123</v>
       </c>
-      <c r="AE1" s="152"/>
+      <c r="AE1" s="148"/>
       <c r="AF1" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="AG1" s="153" t="s">
+      <c r="AG1" s="152" t="s">
         <v>124</v>
       </c>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="149" t="s">
+      <c r="AH1" s="153"/>
+      <c r="AI1" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="AJ1" s="153" t="s">
+      <c r="AJ1" s="152" t="s">
         <v>126</v>
       </c>
-      <c r="AK1" s="154"/>
-      <c r="AL1" s="149" t="s">
+      <c r="AK1" s="153"/>
+      <c r="AL1" s="145" t="s">
         <v>128</v>
       </c>
-      <c r="AM1" s="155" t="s">
+      <c r="AM1" s="162" t="s">
         <v>129</v>
       </c>
-      <c r="AN1" s="149" t="s">
+      <c r="AN1" s="145" t="s">
         <v>150</v>
       </c>
       <c r="AO1" s="7" t="s">
@@ -3155,28 +3155,28 @@
       <c r="AR1" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="AS1" s="141" t="s">
+      <c r="AS1" s="154" t="s">
         <v>140</v>
       </c>
-      <c r="AT1" s="143" t="s">
+      <c r="AT1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="AU1" s="145" t="s">
+      <c r="AU1" s="158" t="s">
         <v>181</v>
       </c>
-      <c r="AV1" s="157" t="s">
+      <c r="AV1" s="164" t="s">
         <v>182</v>
       </c>
       <c r="AW1" s="66" t="s">
         <v>468</v>
       </c>
-      <c r="AX1" s="147" t="s">
+      <c r="AX1" s="160" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="161"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="150"/>
+      <c r="B2" s="143"/>
       <c r="C2" s="67" t="s">
         <v>96</v>
       </c>
@@ -3216,8 +3216,8 @@
       <c r="O2" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
       <c r="R2" s="68" t="s">
         <v>105</v>
       </c>
@@ -3239,8 +3239,8 @@
       <c r="X2" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="Y2" s="150"/>
-      <c r="Z2" s="150"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="146"/>
       <c r="AA2" s="68" t="s">
         <v>101</v>
       </c>
@@ -3263,26 +3263,26 @@
       <c r="AH2" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="AI2" s="150"/>
+      <c r="AI2" s="146"/>
       <c r="AJ2" s="68" t="s">
         <v>105</v>
       </c>
       <c r="AK2" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="AL2" s="150"/>
-      <c r="AM2" s="156"/>
-      <c r="AN2" s="150"/>
+      <c r="AL2" s="146"/>
+      <c r="AM2" s="163"/>
+      <c r="AN2" s="146"/>
       <c r="AO2" s="75"/>
       <c r="AP2" s="75"/>
       <c r="AQ2" s="75"/>
       <c r="AR2" s="75"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="144"/>
-      <c r="AU2" s="146"/>
-      <c r="AV2" s="158"/>
+      <c r="AS2" s="155"/>
+      <c r="AT2" s="157"/>
+      <c r="AU2" s="159"/>
+      <c r="AV2" s="165"/>
       <c r="AW2" s="76"/>
-      <c r="AX2" s="148"/>
+      <c r="AX2" s="161"/>
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" s="77">
@@ -3524,10 +3524,10 @@
         <v>472</v>
       </c>
       <c r="BB5" s="53" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="BC5" s="54" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="BD5" s="56" t="s">
         <v>465</v>
@@ -3569,7 +3569,7 @@
         <v>212</v>
       </c>
       <c r="BQ5" s="51" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.25">
@@ -3646,13 +3646,13 @@
         <v>284</v>
       </c>
       <c r="BE6" s="54" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="BF6" s="56" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="BG6" s="34" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="BH6" t="s">
         <v>486</v>
@@ -3752,16 +3752,16 @@
         <v>474</v>
       </c>
       <c r="BB7" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="BC7" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="BD7" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="BE7" s="56" t="s">
         <v>263</v>
-      </c>
-      <c r="BC7" s="56" t="s">
-        <v>264</v>
-      </c>
-      <c r="BD7" s="56" t="s">
-        <v>265</v>
-      </c>
-      <c r="BE7" s="56" t="s">
-        <v>266</v>
       </c>
       <c r="BF7" s="56" t="s">
         <v>247</v>
@@ -3901,10 +3901,10 @@
         <v>285</v>
       </c>
       <c r="BN8" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="BO8" s="34" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="BP8" s="34" t="s">
         <v>467</v>
@@ -4185,19 +4185,19 @@
         <v>283</v>
       </c>
       <c r="BC11" s="56" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="BD11" s="56" t="s">
         <v>287</v>
       </c>
       <c r="BE11" s="56" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="BF11" s="56" t="s">
         <v>301</v>
       </c>
       <c r="BG11" s="51" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="BH11" s="51" t="s">
         <v>226</v>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="BN11" s="51"/>
       <c r="BO11" s="8" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="BP11" s="8" t="s">
         <v>467</v>
@@ -4601,7 +4601,7 @@
         <v>268</v>
       </c>
       <c r="AV17" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AW17" s="98"/>
       <c r="AX17" s="98"/>
@@ -4669,7 +4669,7 @@
         <v>269</v>
       </c>
       <c r="AV18" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AW18" s="98"/>
       <c r="AX18" s="98"/>
@@ -4737,7 +4737,7 @@
         <v>270</v>
       </c>
       <c r="AV19" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AW19" s="98"/>
       <c r="AX19" s="98"/>
@@ -4805,7 +4805,7 @@
         <v>271</v>
       </c>
       <c r="AV20" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AW20" s="98"/>
       <c r="AX20" s="98"/>
@@ -5131,7 +5131,7 @@
         <v>195</v>
       </c>
       <c r="AV25" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AW25" s="98"/>
       <c r="AX25" s="98"/>
@@ -5207,7 +5207,7 @@
         <v>197</v>
       </c>
       <c r="AV26" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AW26" s="98">
         <v>1</v>
@@ -7571,7 +7571,7 @@
         <v>184</v>
       </c>
       <c r="AV61" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="AW61" s="98"/>
       <c r="AX61" s="98"/>
@@ -7635,7 +7635,7 @@
         <v>185</v>
       </c>
       <c r="AV62" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AW62" s="98">
         <v>13</v>
@@ -8781,7 +8781,7 @@
         <v>277</v>
       </c>
       <c r="AV79" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="AW79" s="98"/>
       <c r="AX79" s="98"/>
@@ -9585,7 +9585,7 @@
         <v>210</v>
       </c>
       <c r="AV91" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="AW91" s="98">
         <v>3</v>
@@ -9657,7 +9657,7 @@
         <v>187</v>
       </c>
       <c r="AV92" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="AW92" s="98"/>
       <c r="AX92" s="98"/>
@@ -9727,7 +9727,7 @@
         <v>188</v>
       </c>
       <c r="AV93" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="AW93" s="98">
         <v>5</v>
@@ -10330,70 +10330,70 @@
       </c>
       <c r="B103"/>
       <c r="C103"/>
-      <c r="D103" s="165" t="s">
+      <c r="D103" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="E103" s="165"/>
-      <c r="F103" s="165"/>
-      <c r="G103" s="165" t="s">
+      <c r="E103" s="144"/>
+      <c r="F103" s="144"/>
+      <c r="G103" s="144" t="s">
+        <v>207</v>
+      </c>
+      <c r="H103" s="144"/>
+      <c r="I103" s="144"/>
+      <c r="J103" s="144"/>
+      <c r="K103" s="144" t="s">
+        <v>208</v>
+      </c>
+      <c r="L103" s="144"/>
+      <c r="M103" s="144"/>
+      <c r="N103" s="144" t="s">
         <v>203</v>
       </c>
-      <c r="H103" s="165"/>
-      <c r="I103" s="165"/>
-      <c r="J103" s="165"/>
-      <c r="K103" s="165" t="s">
+      <c r="O103" s="144"/>
+      <c r="P103" s="34" t="s">
         <v>204</v>
-      </c>
-      <c r="L103" s="165"/>
-      <c r="M103" s="165"/>
-      <c r="N103" s="165" t="s">
-        <v>207</v>
-      </c>
-      <c r="O103" s="165"/>
-      <c r="P103" s="34" t="s">
-        <v>208</v>
       </c>
       <c r="Q103" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="R103" s="165" t="s">
+      <c r="R103" s="144" t="s">
         <v>471</v>
       </c>
-      <c r="S103" s="165"/>
-      <c r="T103" s="165" t="s">
+      <c r="S103" s="144"/>
+      <c r="T103" s="144" t="s">
         <v>470</v>
       </c>
-      <c r="U103" s="165"/>
-      <c r="V103" s="165" t="s">
+      <c r="U103" s="144"/>
+      <c r="V103" s="144" t="s">
         <v>469</v>
       </c>
-      <c r="W103" s="165"/>
-      <c r="X103" s="165"/>
+      <c r="W103" s="144"/>
+      <c r="X103" s="144"/>
       <c r="Y103" s="34" t="s">
         <v>213</v>
       </c>
       <c r="Z103" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="AA103" s="165" t="s">
+      <c r="AA103" s="144" t="s">
         <v>214</v>
       </c>
-      <c r="AB103" s="165"/>
-      <c r="AC103" s="165"/>
-      <c r="AD103" s="165" t="s">
+      <c r="AB103" s="144"/>
+      <c r="AC103" s="144"/>
+      <c r="AD103" s="144" t="s">
         <v>220</v>
       </c>
-      <c r="AE103" s="165"/>
+      <c r="AE103" s="144"/>
       <c r="AF103" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="AG103" s="162"/>
-      <c r="AH103" s="162"/>
+      <c r="AG103" s="141"/>
+      <c r="AH103" s="141"/>
       <c r="AI103" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="AJ103" s="162"/>
-      <c r="AK103" s="162"/>
+      <c r="AJ103" s="141"/>
+      <c r="AK103" s="141"/>
       <c r="AL103" s="34" t="s">
         <v>128</v>
       </c>
@@ -10478,6 +10478,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="AS1:AS2"/>
+    <mergeCell ref="AT1:AT2"/>
+    <mergeCell ref="AU1:AU2"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="AN1:AN2"/>
+    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="AG103:AH103"/>
     <mergeCell ref="AJ103:AK103"/>
     <mergeCell ref="B1:B2"/>
@@ -10494,27 +10515,6 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="AS1:AS2"/>
-    <mergeCell ref="AT1:AT2"/>
-    <mergeCell ref="AU1:AU2"/>
-    <mergeCell ref="AX1:AX2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="AM1:AM2"/>
-    <mergeCell ref="AN1:AN2"/>
-    <mergeCell ref="AV1:AV2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
